--- a/thresholds/AL/french-language-literature/french-language-literature-thresholds.xlsx
+++ b/thresholds/AL/french-language-literature/french-language-literature-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,111 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AX 11,21,31</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91</v>
+      </c>
+      <c r="E2" t="n">
+        <v>79</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68</v>
+      </c>
+      <c r="G2" t="n">
+        <v>58</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22,32</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>120</v>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>91</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>68</v>
+      </c>
+      <c r="G3" t="n">
+        <v>58</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,23,33</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>120</v>
+      </c>
+      <c r="C4" t="n">
+        <v>103</v>
+      </c>
+      <c r="D4" t="n">
+        <v>91</v>
+      </c>
+      <c r="E4" t="n">
+        <v>79</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>June 2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
